--- a/app/src/main/res/raw/sajujirugi.xlsx
+++ b/app/src/main/res/raw/sajujirugi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\taekwondo app resource\step xls file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TaekwondoPattern\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930588E1-CEF0-4F90-A036-C11F7EB5B10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39F563-D930-43CD-BAB0-799B67DADD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49695" yWindow="2400" windowWidth="16920" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43290" yWindow="1875" windowWidth="16920" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Other View</t>
   </si>
   <si>
-    <t>Application - \n 1. Block is executed at the tibia\n 2. The ball of the foot is used as a pivot.\n 3. The outer forearm is the blocking tool.</t>
-  </si>
-  <si>
     <t>Move the right foot to C, forming a right walking stance toward C while executing a middle punch to C with the right fist.</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>END. Bring the left foot back to a ready posture.</t>
+  </si>
+  <si>
+    <t>Application -
+1. Block is executed at the tibia
+2. The ball of the foot is used as a pivot.
+3. The outer forearm is the blocking tool.</t>
   </si>
 </sst>
 </file>
@@ -206,12 +209,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,372 +498,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="30.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>6</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>6</v>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>6</v>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>5</v>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>5</v>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>6</v>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
       <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
-        <v>6</v>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>5</v>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
-        <v>5</v>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="2">
-        <v>5</v>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
-        <v>4</v>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
